--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C33" s="18" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>351</v>
+        <v>698</v>
       </c>
       <c r="E33" s="2" t="n"/>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="C34" s="18" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>431.1</v>
+        <v>899</v>
       </c>
       <c r="E34" s="2" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C35" s="18" t="n"/>
       <c r="D35" s="13" t="n">
-        <v>460</v>
+        <v>970</v>
       </c>
       <c r="E35" s="2" t="n"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="13" t="n">
-        <v>580</v>
+        <v>1248</v>
       </c>
       <c r="E36" s="2" t="n"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="13" t="n">
-        <v>731</v>
+        <v>1578</v>
       </c>
       <c r="E37" s="2" t="n"/>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="13" t="n">
-        <v>584.3</v>
+        <v>1238</v>
       </c>
       <c r="E38" s="2" t="n"/>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="13" t="n">
-        <v>715</v>
+        <v>1565</v>
       </c>
       <c r="E39" s="2" t="n"/>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="13" t="n">
-        <v>890.3</v>
+        <v>1961</v>
       </c>
       <c r="E40" s="2" t="n"/>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="13" t="n">
-        <v>1034</v>
+        <v>2277</v>
       </c>
       <c r="E41" s="2" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C33" s="18" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>698</v>
+        <v>351</v>
       </c>
       <c r="E33" s="2" t="n"/>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="C34" s="18" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>899</v>
+        <v>431.1</v>
       </c>
       <c r="E34" s="2" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C35" s="18" t="n"/>
       <c r="D35" s="13" t="n">
-        <v>970</v>
+        <v>460</v>
       </c>
       <c r="E35" s="2" t="n"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="13" t="n">
-        <v>1248</v>
+        <v>580</v>
       </c>
       <c r="E36" s="2" t="n"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="13" t="n">
-        <v>1578</v>
+        <v>731</v>
       </c>
       <c r="E37" s="2" t="n"/>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="13" t="n">
-        <v>1238</v>
+        <v>584.3</v>
       </c>
       <c r="E38" s="2" t="n"/>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="13" t="n">
-        <v>1565</v>
+        <v>715</v>
       </c>
       <c r="E39" s="2" t="n"/>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="13" t="n">
-        <v>1961</v>
+        <v>890.3</v>
       </c>
       <c r="E40" s="2" t="n"/>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="13" t="n">
-        <v>2277</v>
+        <v>1034</v>
       </c>
       <c r="E41" s="2" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
+++ b/server/LISTAS/mi/BURLETES AUTOADHESIVOS DISMAY.xlsx
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C33" s="18" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>351</v>
+        <v>828</v>
       </c>
       <c r="E33" s="2" t="n"/>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="C34" s="18" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>431.1</v>
+        <v>1037</v>
       </c>
       <c r="E34" s="2" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C35" s="18" t="n"/>
       <c r="D35" s="13" t="n">
-        <v>460</v>
+        <v>1130</v>
       </c>
       <c r="E35" s="2" t="n"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="13" t="n">
-        <v>580</v>
+        <v>1408</v>
       </c>
       <c r="E36" s="2" t="n"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="13" t="n">
-        <v>731</v>
+        <v>1760</v>
       </c>
       <c r="E37" s="2" t="n"/>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="13" t="n">
-        <v>584.3</v>
+        <v>1446</v>
       </c>
       <c r="E38" s="2" t="n"/>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="13" t="n">
-        <v>715</v>
+        <v>1746</v>
       </c>
       <c r="E39" s="2" t="n"/>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="13" t="n">
-        <v>890.3</v>
+        <v>2153</v>
       </c>
       <c r="E40" s="2" t="n"/>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="13" t="n">
-        <v>1034</v>
+        <v>2530</v>
       </c>
       <c r="E41" s="2" t="n"/>
     </row>
@@ -954,19 +954,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
